--- a/Datasets/Bebes.xlsx
+++ b/Datasets/Bebes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +54,9 @@
   <si>
     <t>Três</t>
   </si>
+  <si>
+    <t>sim</t>
+  </si>
 </sst>
 </file>
 
@@ -68,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,9 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="K183" sqref="K183"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="O195" sqref="O195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,6 +4784,48 @@
         <v>9</v>
       </c>
     </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+      <c r="C191" s="2">
+        <v>25</v>
+      </c>
+      <c r="D191" s="2">
+        <v>100</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+      <c r="C192" s="2">
+        <v>33</v>
+      </c>
+      <c r="D192" s="2">
+        <v>78</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
